--- a/Assets/RawData/DropPerSheet.xlsx
+++ b/Assets/RawData/DropPerSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\부트캠프\최종프로젝트 조\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01246741-CE27-44B7-8041-A2B62D4F696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E364288-3F6B-4C32-B53A-6D630A347E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D9B6418-A86A-4AC7-BB58-363309425B5E}"/>
   </bookViews>
@@ -42,51 +42,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_ReawardType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_ReawardType2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_ReawardType3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_ReawardType4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_DropPer1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_DropPer2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_DropPer3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_DropPer4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_dropPer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_dropPer2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_dropPer3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_dropPer4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_rewardType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_rewardType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_rewardType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_rewardType4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,11 +133,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -146,16 +143,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,14 +172,14 @@
   <autoFilter ref="A1:I3" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{04DECC93-664E-409E-B5DC-31874C6D4FCC}" name="_id"/>
-    <tableColumn id="2" xr3:uid="{F7176C3D-7641-4171-BE06-0DFDE91C4EFC}" name="_ReawardType1"/>
-    <tableColumn id="3" xr3:uid="{1361FCBF-F824-44EA-A2C2-3503826099D5}" name="_DropPer1" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{6D56D4E9-2079-444F-BEC3-26C823792DDB}" name="_ReawardType2"/>
-    <tableColumn id="5" xr3:uid="{0A65A614-B9CC-4B6D-B0C0-E2665703744A}" name="_DropPer2" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B96B438C-CA6D-4C29-A109-9EF28506FEE1}" name="_ReawardType3"/>
-    <tableColumn id="7" xr3:uid="{A350D9FE-69A5-4DC6-AA17-289B84257DE7}" name="_DropPer3" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E029B22A-529A-46C3-BEDE-A53FFDC08180}" name="_ReawardType4"/>
-    <tableColumn id="9" xr3:uid="{C625B2C4-94AD-42C9-9EAC-E75FABBD88F3}" name="_DropPer4" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F7176C3D-7641-4171-BE06-0DFDE91C4EFC}" name="_rewardType1"/>
+    <tableColumn id="3" xr3:uid="{1361FCBF-F824-44EA-A2C2-3503826099D5}" name="_dropPer1" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6D56D4E9-2079-444F-BEC3-26C823792DDB}" name="_rewardType2"/>
+    <tableColumn id="5" xr3:uid="{0A65A614-B9CC-4B6D-B0C0-E2665703744A}" name="_dropPer2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B96B438C-CA6D-4C29-A109-9EF28506FEE1}" name="_rewardType3"/>
+    <tableColumn id="7" xr3:uid="{A350D9FE-69A5-4DC6-AA17-289B84257DE7}" name="_dropPer3" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E029B22A-529A-46C3-BEDE-A53FFDC08180}" name="_rewardType4"/>
+    <tableColumn id="9" xr3:uid="{C625B2C4-94AD-42C9-9EAC-E75FABBD88F3}" name="_dropPer4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -508,7 +505,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,28 +526,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -558,52 +555,51 @@
         <v>10000001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.56999999999999995</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.32</v>
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.45</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.1</v>
-      </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.02</v>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/DropPerSheet.xlsx
+++ b/Assets/RawData/DropPerSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E364288-3F6B-4C32-B53A-6D630A347E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572123C2-15A1-4B44-BA1C-7C12ACD9A2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D9B6418-A86A-4AC7-BB58-363309425B5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_totalDropPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,15 +141,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -168,18 +182,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}" name="표1" displayName="표1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}" name="표1" displayName="표1" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{04DECC93-664E-409E-B5DC-31874C6D4FCC}" name="_id"/>
     <tableColumn id="2" xr3:uid="{F7176C3D-7641-4171-BE06-0DFDE91C4EFC}" name="_rewardType1"/>
-    <tableColumn id="3" xr3:uid="{1361FCBF-F824-44EA-A2C2-3503826099D5}" name="_dropPer1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1361FCBF-F824-44EA-A2C2-3503826099D5}" name="_dropPer1" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{6D56D4E9-2079-444F-BEC3-26C823792DDB}" name="_rewardType2"/>
-    <tableColumn id="5" xr3:uid="{0A65A614-B9CC-4B6D-B0C0-E2665703744A}" name="_dropPer2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0A65A614-B9CC-4B6D-B0C0-E2665703744A}" name="_dropPer2" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{B96B438C-CA6D-4C29-A109-9EF28506FEE1}" name="_rewardType3"/>
-    <tableColumn id="7" xr3:uid="{A350D9FE-69A5-4DC6-AA17-289B84257DE7}" name="_dropPer3" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A350D9FE-69A5-4DC6-AA17-289B84257DE7}" name="_dropPer3" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{E029B22A-529A-46C3-BEDE-A53FFDC08180}" name="_rewardType4"/>
-    <tableColumn id="9" xr3:uid="{C625B2C4-94AD-42C9-9EAC-E75FABBD88F3}" name="_dropPer4" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{C625B2C4-94AD-42C9-9EAC-E75FABBD88F3}" name="_dropPer4" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{83E34444-DA83-4DD7-B790-7C2CE0470159}" name="_totalDropPer" dataDxfId="0">
+      <calculatedColumnFormula>SUM($C2,$E2,$G2,$I2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E350FD66-F641-422C-861D-D296676ACBF7}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,9 +536,11 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +568,11 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -572,8 +594,18 @@
       <c r="G2">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:K3" si="0">SUM($C2,$E2,$G2,$I2)</f>
+        <v>94</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000002</v>
       </c>
@@ -600,6 +632,10 @@
       </c>
       <c r="I3">
         <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/DropPerSheet.xlsx
+++ b/Assets/RawData/DropPerSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572123C2-15A1-4B44-BA1C-7C12ACD9A2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6208E64-78BD-4490-8BDB-A55DF7FE4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D9B6418-A86A-4AC7-BB58-363309425B5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>_totalDropPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,8 +194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}" name="표1" displayName="표1" ref="A1:J3" totalsRowShown="0">
-  <autoFilter ref="A1:J3" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}" name="표1" displayName="표1" ref="A1:J5" totalsRowShown="0">
+  <autoFilter ref="A1:J5" xr:uid="{E047B54D-16F9-4AC6-AD7E-5B161DCD43A9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{04DECC93-664E-409E-B5DC-31874C6D4FCC}" name="_id"/>
     <tableColumn id="2" xr3:uid="{F7176C3D-7641-4171-BE06-0DFDE91C4EFC}" name="_rewardType1"/>
@@ -519,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E350FD66-F641-422C-861D-D296676ACBF7}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -580,13 +592,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -600,9 +612,9 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:K3" si="0">SUM($C2,$E2,$G2,$I2)</f>
-        <v>94</v>
+      <c r="J2">
+        <f t="shared" ref="J2:J3" si="0">SUM($C2,$E2,$G2,$I2)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -613,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -631,11 +643,77 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <f>SUM($C4,$E4,$G4,$I4)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <f>SUM($C5,$E5,$G5,$I5)</f>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/DropPerSheet.xlsx
+++ b/Assets/RawData/DropPerSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6208E64-78BD-4490-8BDB-A55DF7FE4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55A719A-5DAD-4214-B42F-52578B49D4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D9B6418-A86A-4AC7-BB58-363309425B5E}"/>
   </bookViews>
@@ -153,11 +153,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,7 +531,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,28 +654,28 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <f>SUM($C4,$E4,$G4,$I4)</f>
         <v>93</v>
       </c>
@@ -690,28 +687,28 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <f>SUM($C5,$E5,$G5,$I5)</f>
         <v>95</v>
       </c>

--- a/Assets/RawData/DropPerSheet.xlsx
+++ b/Assets/RawData/DropPerSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55A719A-5DAD-4214-B42F-52578B49D4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312564CE-7A36-4705-B673-33F95C128307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D9B6418-A86A-4AC7-BB58-363309425B5E}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -640,11 +640,11 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -667,17 +667,17 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f>SUM($C4,$E4,$G4,$I4)</f>
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">

--- a/Assets/RawData/DropPerSheet.xlsx
+++ b/Assets/RawData/DropPerSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312564CE-7A36-4705-B673-33F95C128307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA4556-550F-4CEC-A219-85FB8E2B6B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D9B6418-A86A-4AC7-BB58-363309425B5E}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,25 +688,25 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <f>SUM($C5,$E5,$G5,$I5)</f>

--- a/Assets/RawData/DropPerSheet.xlsx
+++ b/Assets/RawData/DropPerSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA4556-550F-4CEC-A219-85FB8E2B6B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082A396-C2BC-45E1-886F-01B001FE64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D9B6418-A86A-4AC7-BB58-363309425B5E}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -706,7 +706,7 @@
         <v>17</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <f>SUM($C5,$E5,$G5,$I5)</f>
